--- a/app/Recursos Marcas/Burn/Plantilla Carga Masiva - Molova BURN.xlsx
+++ b/app/Recursos Marcas/Burn/Plantilla Carga Masiva - Molova BURN.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joel/Documents/Molova/molova_api/app/Recursos Marcas/Burn/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E456B8-06E0-F149-9421-6C58387AA544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="1" r:id="rId1"/>
     <sheet name="Productos" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="156">
   <si>
     <t>POR FAVOR NO CONTINUES CON LA CARGA MASIVA SIN LEER LAS SIGUIENTES INSTRUCCIONES</t>
   </si>
@@ -243,7 +249,7 @@
     <t>Camisa Corazón</t>
   </si>
   <si>
-    <t xml:space="preserve"> Camisa de Algodón entallada, de cuello solapa con escote pico y manga larga</t>
+    <t> Camisa de Algodón entallada, de cuello solapa con escote pico y manga larga</t>
   </si>
   <si>
     <t>Camisas_Camisetas</t>
@@ -432,9 +438,6 @@
   </si>
   <si>
     <t>Clásicos</t>
-  </si>
-  <si>
-    <t>https://wa.me/message/KI3DYPZQVXKFJ1</t>
   </si>
   <si>
     <t>Negro</t>
@@ -497,8 +500,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,6 +577,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -620,7 +631,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -652,9 +663,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -686,6 +715,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -861,14 +908,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -885,17 +932,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -909,7 +956,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -923,7 +970,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -937,7 +984,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -951,7 +998,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -965,7 +1012,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>13</v>
       </c>
@@ -979,12 +1026,12 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -998,7 +1045,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -1012,7 +1059,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -1023,7 +1070,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -1037,167 +1084,167 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>49</v>
       </c>
@@ -1208,14 +1255,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1262,7 +1311,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -1284,20 +1333,18 @@
       <c r="G2" t="s">
         <v>135</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" t="s">
         <v>137</v>
       </c>
-      <c r="I2" t="s">
-        <v>138</v>
-      </c>
       <c r="J2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>90</v>
       </c>
@@ -1319,20 +1366,18 @@
       <c r="G3" t="s">
         <v>135</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" t="s">
         <v>137</v>
       </c>
-      <c r="I3" t="s">
-        <v>138</v>
-      </c>
       <c r="J3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -1351,17 +1396,15 @@
       <c r="G4" t="s">
         <v>135</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="2"/>
+      <c r="I4" t="s">
         <v>137</v>
       </c>
-      <c r="I4" t="s">
-        <v>138</v>
-      </c>
       <c r="O4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -1380,17 +1423,15 @@
       <c r="G5" t="s">
         <v>135</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="2"/>
+      <c r="I5" t="s">
         <v>137</v>
       </c>
-      <c r="I5" t="s">
-        <v>138</v>
-      </c>
       <c r="O5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -1409,17 +1450,15 @@
       <c r="G6" t="s">
         <v>135</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="2"/>
+      <c r="I6" t="s">
         <v>137</v>
       </c>
-      <c r="I6" t="s">
-        <v>138</v>
-      </c>
       <c r="O6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>94</v>
       </c>
@@ -1438,17 +1477,15 @@
       <c r="G7" t="s">
         <v>135</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>137</v>
-      </c>
+      <c r="H7" s="2"/>
       <c r="I7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -1467,17 +1504,15 @@
       <c r="G8" t="s">
         <v>135</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>137</v>
-      </c>
+      <c r="H8" s="2"/>
       <c r="I8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>96</v>
       </c>
@@ -1499,17 +1534,15 @@
       <c r="G9" t="s">
         <v>135</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="2"/>
+      <c r="I9" t="s">
         <v>137</v>
       </c>
-      <c r="I9" t="s">
-        <v>138</v>
-      </c>
       <c r="O9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>97</v>
       </c>
@@ -1531,23 +1564,21 @@
       <c r="G10" t="s">
         <v>135</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="2"/>
+      <c r="I10" t="s">
         <v>137</v>
       </c>
-      <c r="I10" t="s">
-        <v>138</v>
-      </c>
       <c r="J10" t="s">
+        <v>139</v>
+      </c>
+      <c r="K10" t="s">
         <v>140</v>
       </c>
-      <c r="K10" t="s">
-        <v>141</v>
-      </c>
       <c r="O10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -1566,17 +1597,15 @@
       <c r="G11" t="s">
         <v>135</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>137</v>
-      </c>
+      <c r="H11" s="2"/>
       <c r="I11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -1598,17 +1627,15 @@
       <c r="G12" t="s">
         <v>136</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="2"/>
+      <c r="I12" t="s">
         <v>137</v>
       </c>
-      <c r="I12" t="s">
-        <v>138</v>
-      </c>
       <c r="O12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>100</v>
       </c>
@@ -1630,17 +1657,15 @@
       <c r="G13" t="s">
         <v>136</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="2"/>
+      <c r="I13" t="s">
         <v>137</v>
       </c>
-      <c r="I13" t="s">
-        <v>138</v>
-      </c>
       <c r="O13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -1659,17 +1684,15 @@
       <c r="G14" t="s">
         <v>135</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="2"/>
+      <c r="I14" t="s">
         <v>137</v>
       </c>
-      <c r="I14" t="s">
-        <v>138</v>
-      </c>
       <c r="O14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>102</v>
       </c>
@@ -1691,20 +1714,18 @@
       <c r="G15" t="s">
         <v>135</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="2"/>
+      <c r="I15" t="s">
         <v>137</v>
       </c>
-      <c r="I15" t="s">
-        <v>138</v>
-      </c>
       <c r="J15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -1723,37 +1744,18 @@
       <c r="G16" t="s">
         <v>135</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="2"/>
+      <c r="I16" t="s">
         <v>137</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>138</v>
       </c>
-      <c r="J16" t="s">
-        <v>139</v>
-      </c>
       <c r="O16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H4" r:id="rId3"/>
-    <hyperlink ref="H5" r:id="rId4"/>
-    <hyperlink ref="H6" r:id="rId5"/>
-    <hyperlink ref="H7" r:id="rId6"/>
-    <hyperlink ref="H8" r:id="rId7"/>
-    <hyperlink ref="H9" r:id="rId8"/>
-    <hyperlink ref="H10" r:id="rId9"/>
-    <hyperlink ref="H11" r:id="rId10"/>
-    <hyperlink ref="H12" r:id="rId11"/>
-    <hyperlink ref="H13" r:id="rId12"/>
-    <hyperlink ref="H14" r:id="rId13"/>
-    <hyperlink ref="H15" r:id="rId14"/>
-    <hyperlink ref="H16" r:id="rId15"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>